--- a/KnowledgeMatches.xlsx
+++ b/KnowledgeMatches.xlsx
@@ -18302,14 +18302,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="43" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="50.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -24892,7 +24892,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="409">
+    <row r="471" spans="1:4" ht="378">
       <c r="A471" t="s">
         <v>357</v>
       </c>
